--- a/model_exports/labels/2.0_True_False_2_3.xlsx
+++ b/model_exports/labels/2.0_True_False_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C735"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,33 +518,33 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,20 +583,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,24 +622,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,24 +648,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,20 +687,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,46 +739,46 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,33 +843,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,33 +921,33 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,24 +960,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,37 +986,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1025,33 +1025,33 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,33 +1077,33 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,46 +1142,46 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,20 +1233,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,24 +1285,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,20 +1350,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,20 +1415,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,20 +1454,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,37 +1480,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,24 +1519,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,20 +1584,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,33 +1610,33 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1701,20 +1701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,20 +1753,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,59 +1792,59 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1870,50 +1870,50 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,24 +1935,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,11 +1987,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,98 +2000,98 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,33 +2117,33 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,20 +2182,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,37 +2221,37 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2260,7 +2260,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,33 +2299,33 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,20 +2338,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,50 +2403,50 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,46 +2468,46 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2559,20 +2559,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,20 +2585,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,24 +2611,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,33 +2637,33 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,20 +2702,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,20 +2728,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,37 +2767,37 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,20 +2806,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,24 +2832,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,24 +2858,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,24 +2910,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,20 +3014,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,11 +3040,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,33 +3066,33 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,59 +3105,59 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,59 +3183,59 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,37 +3248,37 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,33 +3300,33 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,24 +3339,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3365,33 +3365,33 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,20 +3417,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,33 +3482,33 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,24 +3560,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,11 +3625,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,37 +3638,37 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,20 +3703,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,50 +3768,50 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3820,33 +3820,33 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,24 +3859,24 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,33 +3885,33 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,24 +3976,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,46 +4002,46 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,37 +4054,37 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,24 +4106,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,20 +4132,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,37 +4158,37 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,46 +4223,46 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,50 +4275,50 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,11 +4353,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4392,20 +4392,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,14 +4418,14 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -4444,20 +4444,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -4483,20 +4483,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,24 +4509,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,33 +4548,33 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,20 +4587,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,24 +4613,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,24 +4678,24 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4704,20 +4704,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,20 +4730,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,24 +4769,24 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4795,24 +4795,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4821,11 +4821,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,20 +4860,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,33 +4886,33 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,20 +5003,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5042,46 +5042,46 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,20 +5094,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,11 +5146,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,33 +5172,33 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,7 +5263,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,20 +5276,20 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,11 +5354,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -5367,20 +5367,20 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,24 +5393,24 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -5419,63 +5419,63 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,20 +5497,20 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,33 +5536,33 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5588,46 +5588,46 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,11 +5640,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,33 +5705,33 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,24 +5744,24 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5770,11 +5770,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,20 +5783,20 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,11 +5822,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5835,20 +5835,20 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,20 +5874,20 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,20 +5900,20 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,20 +5926,20 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B423" t="n">
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,7 +5952,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,7 +5965,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,11 +5978,11 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,24 +6004,24 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,63 +6030,63 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,24 +6134,24 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -6160,50 +6160,50 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
         <v>0</v>
@@ -6212,37 +6212,37 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -6251,20 +6251,20 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,33 +6277,33 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,11 +6316,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -6329,11 +6329,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,20 +6355,20 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,24 +6394,24 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,11 +6433,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,20 +6446,20 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,24 +6472,24 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,85 +6524,85 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,37 +6615,37 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -6654,11 +6654,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,20 +6667,20 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,20 +6706,20 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,37 +6732,37 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,20 +6771,20 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,20 +6823,20 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,50 +6862,50 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,24 +6914,24 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,33 +6940,33 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,24 +6979,24 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -7005,20 +7005,20 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,98 +7031,98 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,11 +7148,11 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
         <v>0</v>
@@ -7161,89 +7161,89 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B522" t="n">
         <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>0</v>
@@ -7252,11 +7252,11 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -7265,24 +7265,24 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
@@ -7291,24 +7291,24 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -7317,20 +7317,20 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,63 +7356,63 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -7421,24 +7421,24 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -7447,20 +7447,20 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,11 +7486,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
         <v>1</v>
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,7 +7512,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,7 +7525,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,20 +7538,20 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,11 +7642,11 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
         <v>1</v>
@@ -7655,20 +7655,20 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,24 +7681,24 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
         <v>0</v>
@@ -7707,50 +7707,50 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>1</v>
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,24 +7772,24 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,11 +7798,11 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -7811,11 +7811,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
         <v>0</v>
@@ -7824,24 +7824,24 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
         <v>1</v>
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,20 +7863,20 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,24 +7889,24 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
         <v>1</v>
@@ -7915,11 +7915,11 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,50 +7941,50 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -7993,24 +7993,24 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
         <v>1</v>
@@ -8019,37 +8019,37 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,11 +8058,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,20 +8071,20 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,11 +8110,11 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,20 +8123,20 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,33 +8149,33 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,11 +8214,11 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
         <v>0</v>
@@ -8253,20 +8253,20 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,24 +8292,24 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
         <v>0</v>
@@ -8318,11 +8318,11 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,11 +8370,11 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,11 +8396,11 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,33 +8409,33 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,11 +8565,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,11 +8604,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,11 +8656,11 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B637" t="n">
         <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,20 +8838,20 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,20 +8877,20 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,11 +8929,11 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C654" t="n">
         <v>0</v>
@@ -8942,20 +8942,20 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,11 +8968,11 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -8981,20 +8981,20 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,33 +9007,33 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,11 +9150,11 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,20 +9189,20 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,24 +9293,24 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B682" t="n">
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -9319,11 +9319,11 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,33 +9332,33 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,11 +9384,11 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,24 +9566,24 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B703" t="n">
         <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -9592,11 +9592,11 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,20 +9670,20 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B711" t="n">
         <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,24 +9709,24 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B714" t="n">
         <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,20 +9735,20 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,37 +9761,37 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B719" t="n">
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,37 +9839,37 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B724" t="n">
         <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B725" t="n">
         <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-798490523820380160</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9938,58 +9938,6 @@
       </c>
       <c r="C731" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>t-702431733740920832</t>
-        </is>
-      </c>
-      <c r="B732" t="n">
-        <v>1</v>
-      </c>
-      <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-702439207684464640</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>t-745577469814538240</t>
-        </is>
-      </c>
-      <c r="B734" t="n">
-        <v>1</v>
-      </c>
-      <c r="C734" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>t-928096679089209344</t>
-        </is>
-      </c>
-      <c r="B735" t="n">
-        <v>0</v>
-      </c>
-      <c r="C735" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
